--- a/Case/day/Time_Registration_Daily_20220331.xlsx
+++ b/Case/day/Time_Registration_Daily_20220331.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://accobat-my.sharepoint.com/personal/tml_accobat_com/Documents/Skrivebord/Case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreasme\Documents\Power_bi\Case\day\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_DE1686811BA3CA747B47EF3C167456C0B61EA505" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{720E4C56-F976-431B-A4CB-249982731F0B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3288DFB-0CA0-45DB-BDC0-FC35117B3044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4956" yWindow="4956" windowWidth="17508" windowHeight="17448" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object19" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Crosstab showing:
  Registrerede timer,  PBI Kompensationstimer,  Ferie Total and  PBI Sygdom per  Medarbejder Medarbejdere by  Tid År - Kvartal - Måned - Uge - Dag (TARGIT)  DagSorted by:
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
   <si>
     <t>30-03-2022</t>
   </si>
@@ -226,22 +227,26 @@
       <sz val="9"/>
       <color rgb="FF005878"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF005878"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -295,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -315,6 +320,9 @@
     <xf numFmtId="39" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -333,7 +341,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -629,25 +637,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A54"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.69921875"/>
+    <col min="1" max="1" width="45.6875"/>
     <col min="2" max="2" width="9.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -655,412 +663,565 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>40</v>
       </c>
       <c r="B48" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
